--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-F2rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-F2rl1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H2">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05881233333333333</v>
+        <v>0.1483723333333333</v>
       </c>
       <c r="N2">
-        <v>0.176437</v>
+        <v>0.445117</v>
       </c>
       <c r="O2">
-        <v>0.02473535287941703</v>
+        <v>0.06025689221954982</v>
       </c>
       <c r="P2">
-        <v>0.02473535287941703</v>
+        <v>0.06025689221954982</v>
       </c>
       <c r="Q2">
-        <v>0.02431962518544445</v>
+        <v>0.1058973898104444</v>
       </c>
       <c r="R2">
-        <v>0.218876626669</v>
+        <v>0.953076508294</v>
       </c>
       <c r="S2">
-        <v>0.005246630945199188</v>
+        <v>0.02092920508818849</v>
       </c>
       <c r="T2">
-        <v>0.005246630945199188</v>
+        <v>0.02092920508818849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H3">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.343833999999999</v>
       </c>
       <c r="O3">
-        <v>0.889365453949249</v>
+        <v>0.8587848174675771</v>
       </c>
       <c r="P3">
-        <v>0.889365453949249</v>
+        <v>0.8587848174675772</v>
       </c>
       <c r="Q3">
-        <v>0.8744178665397778</v>
+        <v>1.509255907976444</v>
       </c>
       <c r="R3">
-        <v>7.869760798858001</v>
+        <v>13.583303171788</v>
       </c>
       <c r="S3">
-        <v>0.1886438546087654</v>
+        <v>0.2982842776874914</v>
       </c>
       <c r="T3">
-        <v>0.1886438546087654</v>
+        <v>0.2982842776874914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H4">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2042393333333333</v>
+        <v>0.199346</v>
       </c>
       <c r="N4">
-        <v>0.612718</v>
+        <v>0.5980380000000001</v>
       </c>
       <c r="O4">
-        <v>0.08589919317133393</v>
+        <v>0.0809582903128731</v>
       </c>
       <c r="P4">
-        <v>0.08589919317133393</v>
+        <v>0.0809582903128731</v>
       </c>
       <c r="Q4">
-        <v>0.08445548328511113</v>
+        <v>0.1422786889906667</v>
       </c>
       <c r="R4">
-        <v>0.7600993495660001</v>
+        <v>1.280508200916</v>
       </c>
       <c r="S4">
-        <v>0.01822013080862039</v>
+        <v>0.02811948308541365</v>
       </c>
       <c r="T4">
-        <v>0.01822013080862039</v>
+        <v>0.02811948308541365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>1.811317</v>
       </c>
       <c r="I5">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J5">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05881233333333333</v>
+        <v>0.1483723333333333</v>
       </c>
       <c r="N5">
-        <v>0.176437</v>
+        <v>0.445117</v>
       </c>
       <c r="O5">
-        <v>0.02473535287941703</v>
+        <v>0.06025689221954982</v>
       </c>
       <c r="P5">
-        <v>0.02473535287941703</v>
+        <v>0.06025689221954982</v>
       </c>
       <c r="Q5">
-        <v>0.03550925972544444</v>
+        <v>0.08958310989877778</v>
       </c>
       <c r="R5">
-        <v>0.319583337529</v>
+        <v>0.806247989089</v>
       </c>
       <c r="S5">
-        <v>0.007660643595286038</v>
+        <v>0.01770490550206489</v>
       </c>
       <c r="T5">
-        <v>0.007660643595286038</v>
+        <v>0.01770490550206489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>1.811317</v>
       </c>
       <c r="I6">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J6">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,10 +815,10 @@
         <v>6.343833999999999</v>
       </c>
       <c r="O6">
-        <v>0.889365453949249</v>
+        <v>0.8587848174675771</v>
       </c>
       <c r="P6">
-        <v>0.889365453949249</v>
+        <v>0.8587848174675772</v>
       </c>
       <c r="Q6">
         <v>1.276743818819777</v>
@@ -827,10 +827,10 @@
         <v>11.490694369378</v>
       </c>
       <c r="S6">
-        <v>0.2754402495035498</v>
+        <v>0.2523313679117767</v>
       </c>
       <c r="T6">
-        <v>0.2754402495035498</v>
+        <v>0.2523313679117767</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>1.811317</v>
       </c>
       <c r="I7">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J7">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2042393333333333</v>
+        <v>0.199346</v>
       </c>
       <c r="N7">
-        <v>0.612718</v>
+        <v>0.5980380000000001</v>
       </c>
       <c r="O7">
-        <v>0.08589919317133393</v>
+        <v>0.0809582903128731</v>
       </c>
       <c r="P7">
-        <v>0.08589919317133393</v>
+        <v>0.0809582903128731</v>
       </c>
       <c r="Q7">
-        <v>0.1233140588451111</v>
+        <v>0.1203595995606667</v>
       </c>
       <c r="R7">
-        <v>1.109826529606</v>
+        <v>1.083236396046</v>
       </c>
       <c r="S7">
-        <v>0.0266033440968531</v>
+        <v>0.02378746773689588</v>
       </c>
       <c r="T7">
-        <v>0.0266033440968531</v>
+        <v>0.02378746773689588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H8">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I8">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J8">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.05881233333333333</v>
+        <v>0.1483723333333333</v>
       </c>
       <c r="N8">
-        <v>0.176437</v>
+        <v>0.445117</v>
       </c>
       <c r="O8">
-        <v>0.02473535287941703</v>
+        <v>0.06025689221954982</v>
       </c>
       <c r="P8">
-        <v>0.02473535287941703</v>
+        <v>0.06025689221954982</v>
       </c>
       <c r="Q8">
-        <v>0.01771372588488889</v>
+        <v>0.01379966560633333</v>
       </c>
       <c r="R8">
-        <v>0.159423532964</v>
+        <v>0.124196990457</v>
       </c>
       <c r="S8">
-        <v>0.003821497316416616</v>
+        <v>0.002727319645369446</v>
       </c>
       <c r="T8">
-        <v>0.003821497316416616</v>
+        <v>0.002727319645369446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H9">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I9">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J9">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>6.343833999999999</v>
       </c>
       <c r="O9">
-        <v>0.889365453949249</v>
+        <v>0.8587848174675771</v>
       </c>
       <c r="P9">
-        <v>0.889365453949249</v>
+        <v>0.8587848174675772</v>
       </c>
       <c r="Q9">
-        <v>0.6369011972275554</v>
+        <v>0.1966736562793333</v>
       </c>
       <c r="R9">
-        <v>5.732110775048</v>
+        <v>1.770062906514</v>
       </c>
       <c r="S9">
-        <v>0.1374028384454082</v>
+        <v>0.03886992205456685</v>
       </c>
       <c r="T9">
-        <v>0.1374028384454082</v>
+        <v>0.03886992205456685</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H10">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I10">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J10">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2042393333333333</v>
+        <v>0.199346</v>
       </c>
       <c r="N10">
-        <v>0.612718</v>
+        <v>0.5980380000000001</v>
       </c>
       <c r="O10">
-        <v>0.08589919317133393</v>
+        <v>0.0809582903128731</v>
       </c>
       <c r="P10">
-        <v>0.08589919317133393</v>
+        <v>0.0809582903128731</v>
       </c>
       <c r="Q10">
-        <v>0.06151498096622222</v>
+        <v>0.018540573422</v>
       </c>
       <c r="R10">
-        <v>0.553634828696</v>
+        <v>0.166865160798</v>
       </c>
       <c r="S10">
-        <v>0.01327102701088862</v>
+        <v>0.003664296771584669</v>
       </c>
       <c r="T10">
-        <v>0.01327102701088862</v>
+        <v>0.003664296771584668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H11">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I11">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J11">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.05881233333333333</v>
+        <v>0.1483723333333333</v>
       </c>
       <c r="N11">
-        <v>0.176437</v>
+        <v>0.445117</v>
       </c>
       <c r="O11">
-        <v>0.02473535287941703</v>
+        <v>0.06025689221954982</v>
       </c>
       <c r="P11">
-        <v>0.02473535287941703</v>
+        <v>0.06025689221954982</v>
       </c>
       <c r="Q11">
-        <v>0.02497208921144444</v>
+        <v>0.03918389679722222</v>
       </c>
       <c r="R11">
-        <v>0.224748802903</v>
+        <v>0.3526550711749999</v>
       </c>
       <c r="S11">
-        <v>0.005387391253934936</v>
+        <v>0.007744173994197846</v>
       </c>
       <c r="T11">
-        <v>0.005387391253934936</v>
+        <v>0.007744173994197846</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H12">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I12">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J12">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,22 +1187,22 @@
         <v>6.343833999999999</v>
       </c>
       <c r="O12">
-        <v>0.889365453949249</v>
+        <v>0.8587848174675771</v>
       </c>
       <c r="P12">
-        <v>0.889365453949249</v>
+        <v>0.8587848174675772</v>
       </c>
       <c r="Q12">
-        <v>0.8978773646717777</v>
+        <v>0.5584512313722221</v>
       </c>
       <c r="R12">
-        <v>8.080896282046</v>
+        <v>5.026061082349999</v>
       </c>
       <c r="S12">
-        <v>0.1937049247494294</v>
+        <v>0.1103704290923692</v>
       </c>
       <c r="T12">
-        <v>0.1937049247494294</v>
+        <v>0.1103704290923692</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H13">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I13">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J13">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2042393333333333</v>
+        <v>0.199346</v>
       </c>
       <c r="N13">
-        <v>0.612718</v>
+        <v>0.5980380000000001</v>
       </c>
       <c r="O13">
-        <v>0.08589919317133393</v>
+        <v>0.0809582903128731</v>
       </c>
       <c r="P13">
-        <v>0.08589919317133393</v>
+        <v>0.0809582903128731</v>
       </c>
       <c r="Q13">
-        <v>0.08672131444911112</v>
+        <v>0.05264561738333334</v>
       </c>
       <c r="R13">
-        <v>0.780491830042</v>
+        <v>0.47381055645</v>
       </c>
       <c r="S13">
-        <v>0.01870895330530731</v>
+        <v>0.01040470331877258</v>
       </c>
       <c r="T13">
-        <v>0.01870895330530731</v>
+        <v>0.01040470331877258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H14">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I14">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J14">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.05881233333333333</v>
+        <v>0.1483723333333333</v>
       </c>
       <c r="N14">
-        <v>0.176437</v>
+        <v>0.445117</v>
       </c>
       <c r="O14">
-        <v>0.02473535287941703</v>
+        <v>0.06025689221954982</v>
       </c>
       <c r="P14">
-        <v>0.02473535287941703</v>
+        <v>0.06025689221954982</v>
       </c>
       <c r="Q14">
-        <v>0.004373324314888889</v>
+        <v>0.03131630544988889</v>
       </c>
       <c r="R14">
-        <v>0.03935991883399999</v>
+        <v>0.281846749049</v>
       </c>
       <c r="S14">
-        <v>0.0009434857037854776</v>
+        <v>0.006189249617372874</v>
       </c>
       <c r="T14">
-        <v>0.0009434857037854776</v>
+        <v>0.006189249617372873</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H15">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I15">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J15">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>6.343833999999999</v>
       </c>
       <c r="O15">
-        <v>0.889365453949249</v>
+        <v>0.8587848174675771</v>
       </c>
       <c r="P15">
-        <v>0.889365453949249</v>
+        <v>0.8587848174675772</v>
       </c>
       <c r="Q15">
-        <v>0.1572439084875555</v>
+        <v>0.4463218508108888</v>
       </c>
       <c r="R15">
-        <v>1.415195176388</v>
+        <v>4.016896657298</v>
       </c>
       <c r="S15">
-        <v>0.03392325128056043</v>
+        <v>0.08820955424568602</v>
       </c>
       <c r="T15">
-        <v>0.03392325128056043</v>
+        <v>0.08820955424568602</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H16">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I16">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J16">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2042393333333333</v>
+        <v>0.199346</v>
       </c>
       <c r="N16">
-        <v>0.612718</v>
+        <v>0.5980380000000001</v>
       </c>
       <c r="O16">
-        <v>0.08589919317133393</v>
+        <v>0.0809582903128731</v>
       </c>
       <c r="P16">
-        <v>0.08589919317133393</v>
+        <v>0.0809582903128731</v>
       </c>
       <c r="Q16">
-        <v>0.01518737298622222</v>
+        <v>0.04207509638733334</v>
       </c>
       <c r="R16">
-        <v>0.136686356876</v>
+        <v>0.3786758674860001</v>
       </c>
       <c r="S16">
-        <v>0.00327647077116495</v>
+        <v>0.008315580988087266</v>
       </c>
       <c r="T16">
-        <v>0.00327647077116495</v>
+        <v>0.008315580988087264</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H17">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I17">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J17">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.05881233333333333</v>
+        <v>0.1483723333333333</v>
       </c>
       <c r="N17">
-        <v>0.176437</v>
+        <v>0.445117</v>
       </c>
       <c r="O17">
-        <v>0.02473535287941703</v>
+        <v>0.06025689221954982</v>
       </c>
       <c r="P17">
-        <v>0.02473535287941703</v>
+        <v>0.06025689221954982</v>
       </c>
       <c r="Q17">
-        <v>0.007767364467444443</v>
+        <v>0.02510687384244445</v>
       </c>
       <c r="R17">
-        <v>0.06990628020699999</v>
+        <v>0.225961864582</v>
       </c>
       <c r="S17">
-        <v>0.001675704064794774</v>
+        <v>0.004962038372356266</v>
       </c>
       <c r="T17">
-        <v>0.001675704064794774</v>
+        <v>0.004962038372356265</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H18">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I18">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J18">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>6.343833999999999</v>
       </c>
       <c r="O18">
-        <v>0.889365453949249</v>
+        <v>0.8587848174675771</v>
       </c>
       <c r="P18">
-        <v>0.889365453949249</v>
+        <v>0.8587848174675772</v>
       </c>
       <c r="Q18">
-        <v>0.2792774236637777</v>
+        <v>0.3578246616404444</v>
       </c>
       <c r="R18">
-        <v>2.513496812974</v>
+        <v>3.220421954764</v>
       </c>
       <c r="S18">
-        <v>0.06025033536153579</v>
+        <v>0.07071926647568692</v>
       </c>
       <c r="T18">
-        <v>0.0602503353615358</v>
+        <v>0.07071926647568691</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H19">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I19">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J19">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2042393333333333</v>
+        <v>0.199346</v>
       </c>
       <c r="N19">
-        <v>0.612718</v>
+        <v>0.5980380000000001</v>
       </c>
       <c r="O19">
-        <v>0.08589919317133393</v>
+        <v>0.0809582903128731</v>
       </c>
       <c r="P19">
-        <v>0.08589919317133393</v>
+        <v>0.0809582903128731</v>
       </c>
       <c r="Q19">
-        <v>0.02697395683311111</v>
+        <v>0.03373239983866667</v>
       </c>
       <c r="R19">
-        <v>0.242765611498</v>
+        <v>0.3035915985480001</v>
       </c>
       <c r="S19">
-        <v>0.005819267178499546</v>
+        <v>0.006666758412119054</v>
       </c>
       <c r="T19">
-        <v>0.005819267178499547</v>
+        <v>0.006666758412119053</v>
       </c>
     </row>
   </sheetData>
